--- a/CustomLocalization-RU/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>chassisdef_javelin_JVN-10A.Description.Details</t>
   </si>
@@ -25,7 +25,7 @@
   </si>
   <si>
     <t xml:space="preserve">Представленный в 2752 году, 10A является дальнобойным задирой. Обе установки SRM-6 заменены одной установка LRM-15 в правой части торса с одной тонной боеприпасов.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -53,13 +53,13 @@
     <t>chassisdef_javelin_JVN-10F.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Javelin is an extremely effective ambusher and superb reconaissance mech.
+    <t xml:space="preserve">The Fire Javelin is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-10F also makes a decent light 'Mech hunter-killer.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Javelin чрезвычайно эффективен для засад, так же является превосходным разведывательным мехом.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">The Fire Javelin is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-10F also makes a decent light 'Mech hunter-killer.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -83,6 +83,11 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Javelin чрезвычайно эффективен для засад, так же является превосходным разведывательным мехом.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
     <t>chassisdef_javelin_JVN-10N.StockRole</t>
   </si>
   <si>
@@ -104,7 +109,7 @@
   </si>
   <si>
     <t xml:space="preserve">Модель 10P является обновлением модели 10N, создана Федеративным Содружеством в условиях большой секретности в 3049 году. 10P сохраняет броню и скорость 10N, удаляет одну из пусковых установок SRM-6 и заменяет ее двумя пусковыми установками Streak SRM-2. Хотя этот вариант немного жертвует огневой мощью, он гораздо более эффективен по расходу боеприпасов, чем оригинальный.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -315,26 +320,16 @@
     <t>mechdef_javelin_JVN-10F.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Fire Javelin is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-10F also makes a decent light 'Mech hunter-killer.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fire Javelin - опасный мех для своего тонажа, особенно против других легких мехов и некоторых средних. JVN-10F является достойным легким охотником-убийцей мехов.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_javelin_JVN-10N.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Javelin is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-10N also makes a decent light 'Mech hunter-killer.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javelin - опасный мех для своего тонажа, особенно против других легких мехов и некоторых средних. JVN-10N является достойным легким охотником-убийцей мехов.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">The Javelin is an extremely effective ambusher and superb reconnaissance mech.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -344,22 +339,7 @@
     <t>mechdef_javelin_JVN-11A.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The second version of the Javelin to carry the moniker Fire Javelin, This upgraded variant is a dangerous 'Mech for its tonnage, especially against other light mechs and some mediums. The JVN-11A also makes a decent light 'Mech hunter-killer.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вторая версия Javelin, носящая название Fire Javelin. Этот модернизированный вариант - опасный мех для своего тонажа, особенно против других легких мехов и некоторых средних. JVN-11A является достойным легким охотником-убийцей мехов.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_javelin_JVN-11B.Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javelin - опасный мех для своего тонажа, особенно против других легких мехов и некоторых средних. JVN-10B является достойным легким охотником-убийцей мехов.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_raven_RVN-1X.Description.Details</t>
@@ -810,7 +790,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1111,14 +1092,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="85.140625" customWidth="1" style="2"/>
     <col min="3" max="3" width="67" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1128,7 +1111,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1145,7 +1128,7 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1162,7 +1145,7 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1176,10 +1159,10 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1196,7 +1179,7 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1213,7 +1196,7 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1230,8 +1213,8 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -1242,12 +1225,12 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1259,13 +1242,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -1276,13 +1259,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1293,12 +1276,12 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1310,13 +1293,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -1327,13 +1310,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -1344,12 +1327,12 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1361,13 +1344,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -1378,13 +1361,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -1395,12 +1378,12 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1412,13 +1395,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -1429,13 +1412,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -1446,13 +1429,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -1463,13 +1446,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1480,13 +1463,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
@@ -1497,13 +1480,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -1514,13 +1497,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -1531,13 +1514,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -1548,13 +1531,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
@@ -1565,13 +1548,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
@@ -1582,13 +1565,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
@@ -1599,13 +1582,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
@@ -1616,13 +1599,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>3</v>
@@ -1633,13 +1616,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -1650,13 +1633,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -1667,13 +1650,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="3" t="s">
         <v>77</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
@@ -1684,13 +1667,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="3" t="s">
         <v>80</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -1701,13 +1684,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -1718,13 +1701,13 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="3" t="s">
         <v>84</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -1735,12 +1718,12 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1752,12 +1735,12 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -1771,11 +1754,11 @@
       <c r="A39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -1786,13 +1769,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -1803,13 +1786,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -1820,13 +1803,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -1837,13 +1820,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>3</v>
@@ -1854,13 +1837,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -1871,13 +1854,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
@@ -1888,13 +1871,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
@@ -1905,13 +1888,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -1922,13 +1905,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -1939,13 +1922,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -1956,13 +1939,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -1973,13 +1956,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -1990,13 +1973,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -2007,13 +1990,13 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -2024,13 +2007,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -2041,13 +2024,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3</v>
@@ -2058,13 +2041,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>3</v>
@@ -2075,13 +2058,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -2092,13 +2075,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>3</v>
@@ -2109,13 +2092,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -2126,13 +2109,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
@@ -2143,13 +2126,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -2160,13 +2143,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -2177,13 +2160,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -2194,13 +2177,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
@@ -2211,13 +2194,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -2228,13 +2211,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
@@ -2245,13 +2228,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>3</v>
@@ -2262,13 +2245,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -2279,13 +2262,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
@@ -2296,13 +2279,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -2313,13 +2296,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
@@ -2330,13 +2313,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -2347,13 +2330,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -2364,13 +2347,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -2381,13 +2364,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -2398,13 +2381,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -2415,13 +2398,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -2432,13 +2415,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -2449,13 +2432,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -2466,13 +2449,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -2483,13 +2466,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -2500,13 +2483,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -2517,13 +2500,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -2534,13 +2517,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
@@ -2551,13 +2534,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -2568,13 +2551,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
@@ -2585,13 +2568,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
